--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +317,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -491,17 +493,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
@@ -516,7 +518,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" customHeight="1">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -542,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43667</v>
       </c>
@@ -558,7 +560,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -572,7 +574,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43713</v>
       </c>
@@ -601,7 +603,7 @@
         <v>1049.53</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -623,7 +625,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43732</v>
       </c>
@@ -651,7 +653,7 @@
         <v>689.95</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -673,7 +675,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43760</v>
       </c>
@@ -700,7 +702,7 @@
         <v>868.4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -720,7 +722,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43794</v>
       </c>
@@ -749,7 +751,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -771,7 +773,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43823</v>
       </c>
@@ -800,7 +802,7 @@
         <v>3041.77</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -822,7 +824,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43857</v>
       </c>
@@ -851,7 +853,7 @@
         <v>2547.9699999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -873,7 +875,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43886</v>
       </c>
@@ -902,7 +904,7 @@
         <v>2733.44</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -924,27 +926,77 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="F18" s="15" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>43924</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2309</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="3">C18-C16</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" ref="F18:F19" si="4">D18*E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>5000</v>
+      </c>
+      <c r="H18" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1363</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="12">
-        <f>SUM(G2:G17)</f>
-        <v>12780.380000000003</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(H2:H17)</f>
-        <v>12780.06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="F19" s="15" t="s">
+      <c r="G20" s="12">
+        <f>SUM(G2:G19)</f>
+        <v>17780.380000000005</v>
+      </c>
+      <c r="H20" s="12">
+        <f>SUM(H2:H19)</f>
+        <v>17780.059999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <f>SUM(H18,-G18)</f>
-        <v>-0.32000000000334694</v>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12">
+        <f>SUM(H20,-G20)</f>
+        <v>-0.32000000000698492</v>
       </c>
     </row>
   </sheetData>
@@ -955,12 +1007,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,12 +1021,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -497,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -977,25 +977,75 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="15" t="s">
+      <c r="A20" s="8">
+        <v>43976</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2309</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="5">C20-C18</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" ref="F20:F21" si="6">D20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>966</v>
+      </c>
+      <c r="H20" s="12">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1363</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G22" s="12">
         <f>SUM(G2:G19)</f>
         <v>17780.380000000005</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H22" s="12">
         <f>SUM(H2:H19)</f>
         <v>17780.059999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="15" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12">
+        <f>SUM(H22,-G22)</f>
         <v>-0.32000000000698492</v>
       </c>
     </row>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -497,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,21 +934,22 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>2309</v>
+        <v>2670</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ref="D18:D19" si="3">C18-C16</f>
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="E18" s="2">
         <v>4.49</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" ref="F18:F19" si="4">D18*E18</f>
-        <v>0</v>
+        <v>1620.89</v>
       </c>
       <c r="G18" s="12">
-        <v>5000</v>
+        <f>SUM(F18,F19)</f>
+        <v>2172.5</v>
       </c>
       <c r="H18" s="12">
         <v>5000</v>
@@ -960,18 +961,18 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>1363</v>
+        <v>1590</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="E19" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>551.61</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -984,21 +985,22 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>2309</v>
+        <v>2917</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ref="D20:D21" si="5">C20-C18</f>
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="E20" s="2">
         <v>4.49</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" ref="F20:F21" si="6">D20*E20</f>
-        <v>0</v>
+        <v>1109.03</v>
       </c>
       <c r="G20" s="12">
-        <v>966</v>
+        <f>SUM(F20,F21)</f>
+        <v>1463.81</v>
       </c>
       <c r="H20" s="12">
         <v>966</v>
@@ -1010,43 +1012,143 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>1363</v>
+        <v>1736</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E21" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>354.78000000000003</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="15" t="s">
+      <c r="A22" s="8">
+        <v>44004</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3149</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="7">C22-C20</f>
+        <v>232</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" ref="F22:F23" si="8">D22*E22</f>
+        <v>1041.68</v>
+      </c>
+      <c r="G22" s="12">
+        <f>SUM(F22,F23)</f>
+        <v>1362.44</v>
+      </c>
+      <c r="H22" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1868</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="8"/>
+        <v>320.76000000000005</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>44004</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3305</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="9">C24-C22</f>
+        <v>156</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" ref="F24:F25" si="10">D24*E24</f>
+        <v>700.44</v>
+      </c>
+      <c r="G24" s="12">
+        <f>SUM(F24,F25)</f>
+        <v>965.31000000000006</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1977</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="10"/>
+        <v>264.87</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="12">
-        <f>SUM(G2:G19)</f>
-        <v>17780.380000000005</v>
-      </c>
-      <c r="H22" s="12">
-        <f>SUM(H2:H19)</f>
-        <v>17780.059999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="15" t="s">
+      <c r="G26" s="12">
+        <f>SUM(G2:G25)</f>
+        <v>18744.440000000002</v>
+      </c>
+      <c r="H26" s="12">
+        <f>SUM(H2:H25)</f>
+        <v>19146.059999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <f>SUM(H22,-G22)</f>
-        <v>-0.32000000000698492</v>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12">
+        <f>SUM(H26,-G26)</f>
+        <v>401.61999999999534</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -497,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>44004</v>
+        <v>44022</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -1090,21 +1090,23 @@
         <v>3305</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:D25" si="9">C24-C22</f>
+        <f>C24-C22</f>
         <v>156</v>
       </c>
       <c r="E24" s="2">
         <v>4.49</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" ref="F24:F25" si="10">D24*E24</f>
+        <f t="shared" ref="F24:F25" si="9">D24*E24</f>
         <v>700.44</v>
       </c>
       <c r="G24" s="12">
         <f>SUM(F24,F25)</f>
         <v>965.31000000000006</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="12">
+        <v>876.3</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -1115,40 +1117,91 @@
         <v>1977</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="9"/>
+        <f>C25-C23</f>
         <v>109</v>
       </c>
       <c r="E25" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>264.87</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="15" t="s">
+      <c r="A26" s="8">
+        <v>44035</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3305</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26-C24</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" ref="F26:F27" si="10">D26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <f>SUM(F26,F27)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>619.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1977</v>
+      </c>
+      <c r="D27" s="2">
+        <f>C27-C25</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G28" s="12">
         <f>SUM(G2:G25)</f>
         <v>18744.440000000002</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H28" s="12">
         <f>SUM(H2:H25)</f>
-        <v>19146.059999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="15" t="s">
+        <v>20022.359999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12">
-        <f>SUM(H26,-G26)</f>
-        <v>401.61999999999534</v>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12">
+        <f>SUM(H28,-G28)</f>
+        <v>1277.9199999999946</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -497,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1094,15 +1094,15 @@
         <v>156</v>
       </c>
       <c r="E24" s="2">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" ref="F24:F25" si="9">D24*E24</f>
-        <v>700.44</v>
+        <v>734.76</v>
       </c>
       <c r="G24" s="12">
         <f>SUM(F24,F25)</f>
-        <v>965.31000000000006</v>
+        <v>1012.71</v>
       </c>
       <c r="H24" s="12">
         <v>876.3</v>
@@ -1121,11 +1121,11 @@
         <v>109</v>
       </c>
       <c r="E25" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="9"/>
-        <v>264.87</v>
+        <v>277.95</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" ref="F26:F27" si="10">D26*E26</f>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="10"/>
@@ -1182,26 +1182,77 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="15" t="s">
+      <c r="A28" s="8">
+        <v>44067</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3305</v>
+      </c>
+      <c r="D28" s="2">
+        <f>C28-C26</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" ref="F28:F29" si="11">D28*E28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <f>SUM(F28,F29)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1561.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1977</v>
+      </c>
+      <c r="D29" s="2">
+        <f>C29-C27</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="12">
-        <f>SUM(G2:G25)</f>
-        <v>18744.440000000002</v>
-      </c>
-      <c r="H28" s="12">
-        <f>SUM(H2:H25)</f>
-        <v>20022.359999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="15" t="s">
+      <c r="G30" s="12">
+        <f>SUM(G2:G29)</f>
+        <v>18791.84</v>
+      </c>
+      <c r="H30" s="12">
+        <f>SUM(H2:H29)</f>
+        <v>22203.509999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12">
-        <f>SUM(H28,-G28)</f>
-        <v>1277.9199999999946</v>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12">
+        <f>SUM(H30,-G30)</f>
+        <v>3411.6699999999946</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -473,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>3626</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D7" si="1">C4-C2</f>
+        <f t="shared" ref="D4:D9" si="1">C4-C2</f>
         <v>104</v>
       </c>
       <c r="E4" s="2">
@@ -679,21 +679,22 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>4119</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>207</v>
       </c>
       <c r="E8" s="2">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" ref="F8:F9" si="4">D8*E8</f>
-        <v>0</v>
+        <v>974.97</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>0</v>
+        <v>1191.72</v>
       </c>
       <c r="H8" s="10">
         <v>1192</v>
@@ -705,42 +706,94 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>2321</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="E9" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>216.74999999999997</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="11" t="s">
+      <c r="A10" s="7">
+        <v>44130</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4428</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="5">C10-C8</f>
+        <v>309</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <v>1455.39</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>1878.69</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2487</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="6"/>
+        <v>423.29999999999995</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10">
-        <f>SUM(G2:G9)</f>
-        <v>2181.15</v>
-      </c>
-      <c r="H10" s="10">
-        <f>SUM(H2:H9)</f>
-        <v>3373.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="11" t="s">
+      <c r="G12" s="10">
+        <f>SUM(G2:G11)</f>
+        <v>5251.5599999999995</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H2:H11)</f>
+        <v>5252.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <f>SUM(H10,-G10)</f>
-        <v>1192</v>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
+        <v>0.59000000000014552</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -473,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -774,25 +774,76 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="11" t="s">
+      <c r="A12" s="7">
+        <v>44137</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4428</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="7">C12-C10</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2487</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G14" s="10">
         <f>SUM(G2:G11)</f>
         <v>5251.5599999999995</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H14" s="10">
         <f>SUM(H2:H11)</f>
         <v>5252.15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="11" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f>SUM(H14,-G14)</f>
         <v>0.59000000000014552</v>
       </c>
     </row>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -473,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -825,25 +825,127 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="11" t="s">
+      <c r="A14" s="7">
+        <v>44167</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4428</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="9">C14-C12</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2782.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2487</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>44187</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4428</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="11">C16-C14</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="12">D16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2487</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G18" s="10">
         <f>SUM(G2:G11)</f>
         <v>5251.5599999999995</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H18" s="10">
         <f>SUM(H2:H11)</f>
         <v>5252.15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="11" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <f>SUM(H14,-G14)</f>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
         <v>0.59000000000014552</v>
       </c>
     </row>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>4428</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="7">C12-C10</f>
+        <f t="shared" ref="D12:D15" si="7">C12-C10</f>
         <v>0</v>
       </c>
       <c r="E12" s="2">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <v>3000</v>
+        <v>2782.11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>44167</v>
+        <v>44187</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -835,14 +835,14 @@
         <v>4428</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="9">C14-C12</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E14" s="2">
         <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
         <v>0</v>
       </c>
       <c r="G14" s="10">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="10">
-        <v>2782.11</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -862,14 +862,14 @@
         <v>2487</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G15" s="10"/>
@@ -877,7 +877,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -886,14 +886,14 @@
         <v>4428</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="11">C16-C14</f>
+        <f t="shared" ref="D16:D17" si="10">C16-C14</f>
         <v>0</v>
       </c>
       <c r="E16" s="2">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="12">D16*E16</f>
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
         <v>0</v>
       </c>
       <c r="G16" s="10">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="10">
-        <v>1861</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,14 +913,14 @@
         <v>2487</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G17" s="10"/>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -473,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,22 +781,22 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>4428</v>
+        <v>4879</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ref="D12:D15" si="7">C12-C10</f>
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="E12" s="2">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" ref="F12:F13" si="8">D12*E12</f>
-        <v>0</v>
+        <v>2124.21</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>0</v>
+        <v>2782.11</v>
       </c>
       <c r="H12" s="10">
         <v>2782.11</v>
@@ -808,18 +808,18 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>2487</v>
+        <v>2745</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="E13" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>657.9</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -832,22 +832,22 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>4428</v>
+        <v>5182</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="E14" s="2">
         <v>4.71</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" ref="F14:F15" si="9">D14*E14</f>
-        <v>0</v>
+        <v>1427.1299999999999</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>0</v>
+        <v>1860.6299999999999</v>
       </c>
       <c r="H14" s="10">
         <v>1861</v>
@@ -859,18 +859,18 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>2487</v>
+        <v>2915</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>433.49999999999994</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -883,22 +883,22 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>4428</v>
+        <v>5792</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="10">C16-C14</f>
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="E16" s="2">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ref="F16:F17" si="11">D16*E16</f>
-        <v>0</v>
+        <v>2873.1</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>0</v>
+        <v>3538.6499999999996</v>
       </c>
       <c r="H16" s="10">
         <v>3539</v>
@@ -910,43 +910,194 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>2487</v>
+        <v>3176</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>665.55</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="11" t="s">
+      <c r="A18" s="7">
+        <v>44228</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6138</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="12">C18-C16</f>
+        <v>346</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>1629.66</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>2078.46</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2078.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3352</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="13"/>
+        <v>448.79999999999995</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>44256</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6138</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="14">C20-C18</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>3457.74</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3457.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3352</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44288</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6138</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="16">C22-C20</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F23" si="17">D22*E22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2131.83</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2131.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3352</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
-        <f>SUM(G2:G11)</f>
-        <v>5251.5599999999995</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM(H2:H11)</f>
-        <v>5252.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="11" t="s">
+      <c r="G24" s="10">
+        <f>SUM(G2:G23)</f>
+        <v>21100.980000000003</v>
+      </c>
+      <c r="H24" s="10">
+        <f>SUM(H2:H23)</f>
+        <v>21102.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
-        <v>0.59000000000014552</v>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <f>SUM(H24,-G24)</f>
+        <v>1.3499999999985448</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -473,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1078,25 +1078,75 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="11" t="s">
+      <c r="A24" s="7">
+        <v>44320</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6138</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="18">C24-C22</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F25" si="19">D24*E24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1116</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3352</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="10">
-        <f>SUM(G2:G23)</f>
-        <v>21100.980000000003</v>
-      </c>
-      <c r="H24" s="10">
-        <f>SUM(H2:H23)</f>
-        <v>21102.33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="11" t="s">
+      <c r="G26" s="10">
+        <f>SUM(G2:G25)</f>
+        <v>22216.980000000003</v>
+      </c>
+      <c r="H26" s="10">
+        <f>SUM(H2:H25)</f>
+        <v>22218.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <f>SUM(H26,-G26)</f>
         <v>1.3499999999985448</v>
       </c>
     </row>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -473,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1128,25 +1128,75 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="11" t="s">
+      <c r="A26" s="7">
+        <v>44341</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6138</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D27" si="20">C26-C24</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:F27" si="21">D26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1744.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3352</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G28" s="10">
         <f>SUM(G2:G25)</f>
         <v>22216.980000000003</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H28" s="10">
         <f>SUM(H2:H25)</f>
         <v>22218.33</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="11" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <f>SUM(H28,-G28)</f>
         <v>1.3499999999985448</v>
       </c>
     </row>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -91,12 +91,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -166,6 +172,11 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -473,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -927,7 +938,7 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="13">
         <v>44228</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -951,12 +962,12 @@
         <f>SUM(F18,F19)</f>
         <v>2078.46</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="12">
         <v>2078.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
@@ -978,180 +989,184 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="13">
         <v>44256</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>6138</v>
+        <v>6707</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ref="D20:D21" si="14">C20-C18</f>
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="E20" s="2">
         <v>4.71</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" ref="F20:F21" si="15">D20*E20</f>
-        <v>0</v>
+        <v>2679.99</v>
       </c>
       <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
         <v>3457.74</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="12">
         <v>3457.74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>3352</v>
+        <v>3657</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="E21" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>777.75</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="13">
         <v>44288</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>6138</v>
+        <v>7060</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ref="D22:D23" si="16">C22-C20</f>
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E22" s="2">
         <v>4.71</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" ref="F22:F23" si="17">D22*E22</f>
-        <v>0</v>
+        <v>1662.6299999999999</v>
       </c>
       <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
         <v>2131.83</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="12">
         <v>2131.83</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>3352</v>
+        <v>3841</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E23" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>469.2</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="13">
         <v>44320</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>6138</v>
+        <v>7250</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ref="D24:D25" si="18">C24-C22</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E24" s="2">
         <v>4.71</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" ref="F24:F25" si="19">D24*E24</f>
-        <v>0</v>
+        <v>894.9</v>
       </c>
       <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>1134.5999999999999</v>
+      </c>
+      <c r="H24" s="12">
         <v>1116</v>
       </c>
-      <c r="H24" s="10">
-        <v>1116</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>3352</v>
+        <v>3935</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E25" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>239.7</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="13">
         <v>44341</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>6138</v>
+        <v>7546</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ref="D26:D27" si="20">C26-C24</f>
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="E26" s="2">
         <v>4.71</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" ref="F26:F27" si="21">D26*E26</f>
-        <v>0</v>
+        <v>1394.16</v>
       </c>
       <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>1774.1100000000001</v>
+      </c>
+      <c r="H26" s="12">
         <v>1744.31</v>
       </c>
     </row>
@@ -1161,43 +1176,104 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>3352</v>
+        <v>4084</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E27" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>379.95</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="11" t="s">
+      <c r="A28" s="7">
+        <v>44369</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7546</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D29" si="22">C28-C26</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28:F29" si="23">D28*E28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SUM(F28,F29)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>828.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4084</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G30" s="10">
         <f>SUM(G2:G25)</f>
-        <v>22216.980000000003</v>
-      </c>
-      <c r="H28" s="10">
+        <v>22235.58</v>
+      </c>
+      <c r="H30" s="10">
         <f>SUM(H2:H25)</f>
         <v>22218.33</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="11" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10">
-        <f>SUM(H28,-G28)</f>
-        <v>1.3499999999985448</v>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <f>SUM(H30,-G30)</f>
+        <v>-17.25</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>6515</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>3551</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -145,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,6 +184,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1158,7 @@
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="15">
         <v>7546</v>
       </c>
       <c r="D26" s="2">
@@ -1175,7 +1185,7 @@
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="15">
         <v>4084</v>
       </c>
       <c r="D27" s="2">
@@ -1199,7 +1209,7 @@
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="15">
         <v>7546</v>
       </c>
       <c r="D28" s="2">
@@ -1226,7 +1236,7 @@
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="15">
         <v>4084</v>
       </c>
       <c r="D29" s="2">
@@ -1244,35 +1254,137 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="11" t="s">
+      <c r="A30" s="7">
+        <v>44440</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15">
+        <v>7546</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:D31" si="24">C30-C28</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" ref="F30:F31" si="25">D30*E30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <f>SUM(F30,F31)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>872.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="15">
+        <v>4084</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>44453</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15">
+        <v>7546</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32:D33" si="26">C32-C30</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" ref="F32:F33" si="27">D32*E32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <f>SUM(F32,F33)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>471.56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="15">
+        <v>4084</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="10">
-        <f>SUM(G2:G25)</f>
-        <v>22235.58</v>
-      </c>
-      <c r="H30" s="10">
-        <f>SUM(H2:H25)</f>
-        <v>22218.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="11" t="s">
+      <c r="G34" s="10">
+        <f>SUM(G2:G33)</f>
+        <v>24009.690000000002</v>
+      </c>
+      <c r="H34" s="10">
+        <f>SUM(H2:H33)</f>
+        <v>26135.130000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10">
-        <f>SUM(H30,-G30)</f>
-        <v>-17.25</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="1">
+      <c r="G35" s="10"/>
+      <c r="H35" s="10">
+        <f>SUM(H34,-G34)</f>
+        <v>2125.4400000000023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
         <v>6515</v>
       </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="1">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
         <v>3551</v>
       </c>
     </row>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -494,10 +494,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1356,35 +1356,86 @@
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="11" t="s">
+      <c r="A34" s="7">
+        <v>44489</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="15">
+        <v>7546</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:D35" si="28">C34-C32</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" ref="F34:F35" si="29">D34*E34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <f>SUM(F34,F35)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1716.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="15">
+        <v>4084</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G36" s="10">
         <f>SUM(G2:G33)</f>
         <v>24009.690000000002</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H36" s="10">
         <f>SUM(H2:H33)</f>
         <v>26135.130000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="11" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10">
-        <f>SUM(H34,-G34)</f>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10">
+        <f>SUM(H36,-G36)</f>
         <v>2125.4400000000023</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="1">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
         <v>6515</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="1">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
         <v>3551</v>
       </c>
     </row>

--- a/sputnik/personal/ee/194ee.xlsx
+++ b/sputnik/personal/ee/194ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -98,7 +98,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,8 +189,18 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -977,7 +993,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1015,7 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="17">
         <v>44256</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1023,12 +1039,12 @@
         <f>SUM(F20,F21)</f>
         <v>3457.74</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="15">
         <v>3457.74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1066,7 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="17">
         <v>44288</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1074,12 +1090,12 @@
         <f>SUM(F22,F23)</f>
         <v>2131.83</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="15">
         <v>2131.83</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1117,7 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="17">
         <v>44320</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1125,12 +1141,12 @@
         <f>SUM(F24,F25)</f>
         <v>1134.5999999999999</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="15">
         <v>1116</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1157,7 @@
         <f t="shared" si="18"/>
         <v>94</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="19">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="9">
@@ -1158,7 +1174,7 @@
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="18">
         <v>7546</v>
       </c>
       <c r="D26" s="2">
@@ -1185,14 +1201,14 @@
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="18">
         <v>4084</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="20"/>
         <v>149</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="19">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="9">
@@ -1209,23 +1225,23 @@
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="15">
-        <v>7546</v>
+      <c r="C28" s="18">
+        <v>7683</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ref="D28:D29" si="22">C28-C26</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E28" s="2">
         <v>4.71</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" ref="F28:F29" si="23">D28*E28</f>
-        <v>0</v>
+        <v>645.27</v>
       </c>
       <c r="G28" s="10">
         <f>SUM(F28,F29)</f>
-        <v>0</v>
+        <v>844.17</v>
       </c>
       <c r="H28" s="10">
         <v>828.57</v>
@@ -1236,50 +1252,50 @@
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="15">
-        <v>4084</v>
+      <c r="C29" s="18">
+        <v>4162</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
+        <v>78</v>
+      </c>
+      <c r="E29" s="19">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>198.89999999999998</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>44440</v>
+        <v>44410</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="15">
-        <v>7546</v>
+      <c r="C30" s="18">
+        <v>7863</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ref="D30:D31" si="24">C30-C28</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E30" s="2">
-        <v>4.96</v>
+        <v>4.71</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" ref="F30:F31" si="25">D30*E30</f>
-        <v>0</v>
+        <v>847.8</v>
       </c>
       <c r="G30" s="10">
         <f>SUM(F30,F31)</f>
-        <v>0</v>
+        <v>949.8</v>
       </c>
       <c r="H30" s="10">
-        <v>872.36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1287,50 +1303,50 @@
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="15">
-        <v>4084</v>
+      <c r="C31" s="18">
+        <v>4202</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E31" s="5">
-        <v>2.68</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>44453</v>
+        <v>44440</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="15">
-        <v>7546</v>
+      <c r="C32" s="18">
+        <v>8007</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32:D33" si="26">C32-C30</f>
-        <v>0</v>
+        <f>C32-C30</f>
+        <v>144</v>
       </c>
       <c r="E32" s="2">
         <v>4.96</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" ref="F32:F33" si="27">D32*E32</f>
-        <v>0</v>
+        <f t="shared" ref="F32:F33" si="26">D32*E32</f>
+        <v>714.24</v>
       </c>
       <c r="G32" s="10">
         <f>SUM(F32,F33)</f>
-        <v>0</v>
+        <v>872.36</v>
       </c>
       <c r="H32" s="10">
-        <v>471.56</v>
+        <v>872.36</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1338,50 +1354,50 @@
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="15">
-        <v>4084</v>
+      <c r="C33" s="18">
+        <v>4261</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f>C33-C31</f>
+        <v>59</v>
       </c>
       <c r="E33" s="5">
         <v>2.68</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>158.12</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>44489</v>
+        <v>44453</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="15">
-        <v>7546</v>
+      <c r="C34" s="18">
+        <v>8081</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D35" si="28">C34-C32</f>
-        <v>0</v>
+        <f t="shared" ref="D34:D35" si="27">C34-C32</f>
+        <v>74</v>
       </c>
       <c r="E34" s="2">
         <v>4.96</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" ref="F34:F35" si="29">D34*E34</f>
-        <v>0</v>
+        <f t="shared" ref="F34:F35" si="28">D34*E34</f>
+        <v>367.04</v>
       </c>
       <c r="G34" s="10">
         <f>SUM(F34,F35)</f>
-        <v>0</v>
+        <v>471.56000000000006</v>
       </c>
       <c r="H34" s="10">
-        <v>1716.8</v>
+        <v>471.56</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,54 +1405,197 @@
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="15">
-        <v>4084</v>
+      <c r="C35" s="18">
+        <v>4300</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>39</v>
       </c>
       <c r="E35" s="5">
         <v>2.68</v>
       </c>
       <c r="F35" s="9">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>104.52000000000001</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="11" t="s">
+      <c r="A36" s="7">
+        <v>44489</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="18">
+        <v>8345</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36:D37" si="29">C36-C34</f>
+        <v>264</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" ref="F36:F37" si="30">D36*E36</f>
+        <v>1309.44</v>
+      </c>
+      <c r="G36" s="10">
+        <f>SUM(F36,F37)</f>
+        <v>1716.8000000000002</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1716.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="18">
+        <v>4452</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="29"/>
+        <v>152</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="30"/>
+        <v>407.36</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>44518</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="14">
+        <v>8345</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38:D39" si="31">C38-C36</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" ref="F38:F39" si="32">D38*E38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <f>SUM(F38,F39)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>634.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="14">
+        <v>4452</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>44552</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="14">
+        <v>8345</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40:D41" si="33">C40-C38</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" ref="F40:F41" si="34">D40*E40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <f>SUM(F40,F41)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="14">
+        <v>4452</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="10">
-        <f>SUM(G2:G33)</f>
-        <v>24009.690000000002</v>
-      </c>
-      <c r="H36" s="10">
-        <f>SUM(H2:H33)</f>
-        <v>26135.130000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="11" t="s">
+      <c r="G42" s="10">
+        <f>SUM(G2:G35)</f>
+        <v>27147.58</v>
+      </c>
+      <c r="H42" s="10">
+        <f>SUM(H2:H35)</f>
+        <v>27135.130000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10">
-        <f>SUM(H36,-G36)</f>
-        <v>2125.4400000000023</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="1">
-        <v>6515</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="1">
-        <v>3551</v>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10">
+        <f>SUM(H42,-G42)</f>
+        <v>-12.44999999999709</v>
       </c>
     </row>
   </sheetData>
